--- a/LS-HT Customer Info.xlsx
+++ b/LS-HT Customer Info.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgunti\Desktop\nquiry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC1A6FB9-3EB8-426B-BD8F-28550CF41BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20FCD94-06E3-416A-959A-8F848A71C53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LS" sheetId="1" r:id="rId1"/>
     <sheet name="HT" sheetId="2" r:id="rId2"/>
+    <sheet name="Jira fields " sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="230">
   <si>
     <t>Customer</t>
   </si>
@@ -673,13 +673,683 @@
   </si>
   <si>
     <t>Haleon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Request Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Grant User Access/Revoke User Access/Troubleshoot Access
+ (Refer CSP Sheet)</t>
+    </r>
+  </si>
+  <si>
+    <t>CSP
+Should be raised through Customer Success Portal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: COPS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Work type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Task
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Summary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Based on the description
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Priority</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Medium
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Customer - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Based on the user domain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Support Projects: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MNHT, MNLS &amp; RVLS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cloud Environmental List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Refer COPS sheet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cloud Operations Request typ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">e: Refer COPS sheet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cloud Operations Request Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Refer COPS sheet</t>
+    </r>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>COPS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: MNLS, MNHT, RVLS 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Work type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Refer NOC sheet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Summary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Based on the description
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Priority</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Medium
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Customer - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Based on the user domain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cloud Operations Request type: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Refer NOC sheet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cloud Operations Request Date:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Refer NOC sheet</t>
+    </r>
+  </si>
+  <si>
+    <t>NOC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Model N Hi-Tech (MNHT) or Model N Life Sciences (MNLS)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Work type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Service Request
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Request type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Product Support
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Summary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Based on the description
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Urgency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Medium
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Impact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Moderate/Limited
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSD Suppress Group Email Notification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-No
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Support Org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Product Support</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Area: check if customer is aware of the area else default to Other (possible cases)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Affected Version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: &lt;Release&gt; we can default to latest release.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reported Environment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 
+Any attachments (screenshots) would help</t>
+    </r>
+  </si>
+  <si>
+    <t>MNHT/MNLS</t>
+  </si>
+  <si>
+    <t>To be populated fields</t>
+  </si>
+  <si>
+    <t>To be requested fields</t>
+  </si>
+  <si>
+    <t>Product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,8 +1407,31 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,8 +1485,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -911,11 +1610,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -986,9 +1751,48 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D02BEF1D-3E5A-4345-B44F-0451AD3BDECE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +2097,7 @@
   </sheetPr>
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2849,4 +3653,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88FDE58-856C-4A82-B302-FF7749033689}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="42.36328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="64.08984375" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="113.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="136" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LS-HT Customer Info.xlsx
+++ b/LS-HT Customer Info.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgunti\Desktop\nquiry-react\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0D14ED-955A-4042-BDC2-B677F9C0F293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="LS"/>
-    <sheet r:id="rId2" sheetId="2" name="HT"/>
-    <sheet r:id="rId3" sheetId="3" name="TicketMapping"/>
+    <sheet name="LS" sheetId="1" r:id="rId1"/>
+    <sheet name="HT" sheetId="2" r:id="rId2"/>
+    <sheet name="TicketMapping" sheetId="3" r:id="rId3"/>
+    <sheet name="ZD" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="304">
   <si>
     <t>Category</t>
   </si>
@@ -793,14 +800,148 @@
   </si>
   <si>
     <t>MBS DayOne</t>
+  </si>
+  <si>
+    <t>Support Email Address</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>amd_support@modeln.com</t>
+  </si>
+  <si>
+    <t>AMD Systems</t>
+  </si>
+  <si>
+    <t>amd_systems_support@modeln.com</t>
+  </si>
+  <si>
+    <t>Advanced Energy Industries</t>
+  </si>
+  <si>
+    <t>ae_support@modeln.com</t>
+  </si>
+  <si>
+    <t>Cambium</t>
+  </si>
+  <si>
+    <t>cambium_support@modeln.com</t>
+  </si>
+  <si>
+    <t>Corning</t>
+  </si>
+  <si>
+    <t>corning_support@modeln.com</t>
+  </si>
+  <si>
+    <t>diodes_support@modeln.com</t>
+  </si>
+  <si>
+    <t>Ergotron</t>
+  </si>
+  <si>
+    <t>ergotron_support@modeln.com</t>
+  </si>
+  <si>
+    <t>IDT</t>
+  </si>
+  <si>
+    <t>renesas_support@modeln.com</t>
+  </si>
+  <si>
+    <t>Intel National</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intel_national_support@modeln.com </t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>intel_support@modeln.com</t>
+  </si>
+  <si>
+    <t>mcc_support@modeln.com</t>
+  </si>
+  <si>
+    <t>micron_support@modeln.com</t>
+  </si>
+  <si>
+    <t>Panduit</t>
+  </si>
+  <si>
+    <t>panduit_support@modeln.com</t>
+  </si>
+  <si>
+    <t>Pentair</t>
+  </si>
+  <si>
+    <t>pentair_support@modeln.com</t>
+  </si>
+  <si>
+    <t>Qualcom</t>
+  </si>
+  <si>
+    <t>qualcomm_support@modeln.com</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>samsung_support@modeln.com</t>
+  </si>
+  <si>
+    <t>solidigm_support@modeln.com</t>
+  </si>
+  <si>
+    <t>Sonos</t>
+  </si>
+  <si>
+    <t>sonos_support@modeln.com</t>
+  </si>
+  <si>
+    <t>seagate_support@modeln.com</t>
+  </si>
+  <si>
+    <t>Spin Co</t>
+  </si>
+  <si>
+    <t>spinco_support@modeln.com</t>
+  </si>
+  <si>
+    <t>Targus</t>
+  </si>
+  <si>
+    <t>targus_support@modeln.com</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>te_support@modeln.com</t>
+  </si>
+  <si>
+    <t>Taiwan Semi Conductors</t>
+  </si>
+  <si>
+    <t>tsc_support@modeln.com</t>
+  </si>
+  <si>
+    <t>u-blox_support@modeln.com</t>
+  </si>
+  <si>
+    <t>Western Digital</t>
+  </si>
+  <si>
+    <t>western_digital_support@modeln.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,16 +955,55 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF467886"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E6F5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -846,30 +1026,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -880,10 +1079,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -921,71 +1120,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1013,7 +1212,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1036,11 +1235,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1049,13 +1248,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1065,7 +1264,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1074,7 +1273,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1083,7 +1282,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1091,10 +1290,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1159,7 +1358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1167,15 +1366,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1189,1037 +1385,1028 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>161</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>169</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
         <v>181</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>184</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>185</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>187</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>190</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>198</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>200</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>202</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>203</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>204</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" t="s">
         <v>205</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>206</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" t="s">
         <v>207</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>208</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" t="s">
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>210</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" t="s">
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>212</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" t="s">
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>214</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" t="s">
         <v>215</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>216</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" t="s">
         <v>217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>218</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" t="s">
         <v>219</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>220</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="2" t="s">
+    </row>
+    <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" t="s">
         <v>222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>223</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" t="s">
         <v>224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>225</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" t="s">
         <v>226</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>227</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" t="s">
         <v>228</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>229</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" t="s">
         <v>230</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>231</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" t="s">
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>232</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>233</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" t="s">
         <v>234</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>235</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="2" t="s">
+    </row>
+    <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>236</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>181</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" t="s">
         <v>237</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>238</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="B65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" t="s">
         <v>239</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>240</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" t="s">
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>242</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="B67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="2" t="s">
+    </row>
+    <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>243</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" t="s">
         <v>67</v>
       </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="2" t="s">
+    </row>
+    <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>244</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="B69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" t="s">
         <v>67</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" t="s">
         <v>245</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>246</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" t="s">
         <v>247</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>248</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" t="s">
         <v>249</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>250</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" t="s">
         <v>251</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>252</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
         <v>67</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" t="s">
         <v>253</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>254</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="B74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" t="s">
         <v>67</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" t="s">
         <v>255</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>256</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" t="s">
         <v>257</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>258</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="B76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2227,23 +2414,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -2257,493 +2441,409 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
+    </row>
+    <row r="43" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
+    </row>
+    <row r="44" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
+    </row>
+    <row r="45" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
+    </row>
+    <row r="46" spans="2:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2751,7 +2851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2759,27 +2859,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2829,195 +2914,417 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
+      <c r="P3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
+      <c r="N4" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
+      <c r="P4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
+      <c r="P5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2" t="s">
+      <c r="P6" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1ACA02-A046-47AD-BEAC-C9F6B0FB6F44}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.54296875" customWidth="1"/>
+    <col min="2" max="2" width="32.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:amd_support@modeln.com" xr:uid="{6A953F74-D1CB-4ED9-8373-CB3524D19F08}"/>
+    <hyperlink ref="B4" r:id="rId2" display="mailto:ae_support@modeln.com" xr:uid="{C38B99BA-0224-474E-9E5D-0CF47E527820}"/>
+    <hyperlink ref="B5" r:id="rId3" display="mailto:cambium_support@modeln.com" xr:uid="{0A0DF47C-C528-4855-BA05-F9CD0BE67323}"/>
+    <hyperlink ref="B6" r:id="rId4" display="mailto:corning_support@modeln.com" xr:uid="{2EE75518-EC80-4AA2-9E66-25DFE241CC26}"/>
+    <hyperlink ref="B7" r:id="rId5" display="mailto:diodes_support@modeln.com" xr:uid="{DF34F213-B7DD-445A-836C-35F4802C6CEA}"/>
+    <hyperlink ref="B8" r:id="rId6" display="mailto:ergotron_support@modeln.com" xr:uid="{4A268016-55AC-40C2-99AF-939CDB83FD46}"/>
+    <hyperlink ref="B9" r:id="rId7" display="mailto:renesas_support@modeln.com" xr:uid="{7405D388-EB14-415F-BB19-3CC9B128211D}"/>
+    <hyperlink ref="B10" r:id="rId8" display="mailto:intel_national_support@modeln.com" xr:uid="{BD0FFE4A-A198-486C-8745-15364C643DF6}"/>
+    <hyperlink ref="B11" r:id="rId9" display="mailto:intel_support@modeln.com" xr:uid="{56FE6C64-2EE1-40EB-A696-1F1EB0DBEAF3}"/>
+    <hyperlink ref="B12" r:id="rId10" display="mailto:mcc_support@modeln.com" xr:uid="{8C05ECDD-07AF-40A0-B88F-80D03EF74D63}"/>
+    <hyperlink ref="B13" r:id="rId11" display="mailto:micron_support@modeln.com" xr:uid="{4A9329AC-32F4-4A11-9A9E-E8EB3FC7DF44}"/>
+    <hyperlink ref="B14" r:id="rId12" display="mailto:panduit_support@modeln.com" xr:uid="{94503D5E-208A-4519-8630-DFBC434486D9}"/>
+    <hyperlink ref="B15" r:id="rId13" display="mailto:pentair_support@modeln.com" xr:uid="{59B246CB-B2DB-4560-A5A4-0BF95EB691BC}"/>
+    <hyperlink ref="B16" r:id="rId14" display="mailto:qualcomm_support@modeln.com" xr:uid="{7131EC96-8323-426C-9A16-1A66B565D5F9}"/>
+    <hyperlink ref="B17" r:id="rId15" display="mailto:samsung_support@modeln.com" xr:uid="{D59D2E48-9D4D-4439-B3F5-C77E274E25FC}"/>
+    <hyperlink ref="B18" r:id="rId16" display="mailto:solidigm_support@modeln.com" xr:uid="{0D9ACF9F-C66D-4B12-93BB-9EF6798DCCC3}"/>
+    <hyperlink ref="B19" r:id="rId17" display="mailto:sonos_support@modeln.com" xr:uid="{C18CB78E-2DA5-4527-90C7-608D4225D0C5}"/>
+    <hyperlink ref="B20" r:id="rId18" display="mailto:seagate_support@modeln.com" xr:uid="{84043424-C8BF-4BBC-9599-84FC8DC412D8}"/>
+    <hyperlink ref="B21" r:id="rId19" display="mailto:spinco_support@modeln.com" xr:uid="{FB893A26-C1CF-4CC2-B20E-CFD35231F155}"/>
+    <hyperlink ref="B22" r:id="rId20" display="mailto:targus_support@modeln.com" xr:uid="{A6BB08FB-7C0A-4EC1-A3AB-88F139CD9137}"/>
+    <hyperlink ref="B23" r:id="rId21" display="mailto:te_support@modeln.com" xr:uid="{7425953D-20BC-4F1C-96A2-2361F2203F3C}"/>
+    <hyperlink ref="B24" r:id="rId22" display="mailto:tsc_support@modeln.com" xr:uid="{C42AE08F-81B6-4D80-AC6B-A61E0AF6B577}"/>
+    <hyperlink ref="B25" r:id="rId23" display="mailto:u-blox_support@modeln.com" xr:uid="{9949E6CE-F6F8-46B8-9819-341F50491140}"/>
+    <hyperlink ref="B26" r:id="rId24" display="mailto:western_digital_support@modeln.com" xr:uid="{D09576BB-0A34-4797-B30C-35210ED51E5A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>